--- a/苹果开发笔记/未整理文档/苹果机型资料.xlsx
+++ b/苹果开发笔记/未整理文档/苹果机型资料.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyfeng/SourceTree/MyDevelopment/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyfeng/SourceTree/MyDocuments/苹果开发笔记/未整理文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The new iPad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iPad 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +317,30 @@
   </si>
   <si>
     <t>iPhone SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone 7 Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad 3(The new iPad)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -998,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1062,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
@@ -1091,7 +1111,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1">
         <v>3.5</v>
@@ -1120,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1">
         <v>3.5</v>
@@ -1146,10 +1166,10 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1">
         <v>3.5</v>
@@ -1175,10 +1195,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1">
         <v>3.5</v>
@@ -1204,7 +1224,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -1230,7 +1250,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1256,7 +1276,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -1282,7 +1302,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1">
         <v>4.7</v>
@@ -1308,7 +1328,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1">
         <v>5.5</v>
@@ -1334,10 +1354,10 @@
         <v>42278</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E12" s="1">
         <v>4.7</v>
@@ -1360,10 +1380,10 @@
         <v>42278</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1">
         <v>5.5</v>
@@ -1389,10 +1409,10 @@
         <v>42430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -1410,326 +1430,387 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
         <v>40179</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>40603</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E36" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>42278</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="1">
+      <c r="C40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>40969</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>41183</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>41183</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>41548</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
-        <v>41548</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
-        <v>41913</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
-        <v>41913</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
-        <v>42278</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
-        <v>42278</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/苹果开发笔记/未整理文档/苹果机型资料.xlsx
+++ b/苹果开发笔记/未整理文档/苹果机型资料.xlsx
@@ -212,18 +212,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iPad air</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iPad mini 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iPad air 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iOS 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +333,14 @@
   </si>
   <si>
     <t>iPad 3(The new iPad)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1082,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
@@ -1111,7 +1111,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1">
         <v>3.5</v>
@@ -1140,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1">
         <v>3.5</v>
@@ -1166,10 +1166,10 @@
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1">
         <v>3.5</v>
@@ -1195,10 +1195,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>3.5</v>
@@ -1224,7 +1224,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -1250,7 +1250,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1276,7 +1276,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -1302,7 +1302,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1">
         <v>4.7</v>
@@ -1328,7 +1328,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1">
         <v>5.5</v>
@@ -1354,10 +1354,10 @@
         <v>42278</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1">
         <v>4.7</v>
@@ -1380,10 +1380,10 @@
         <v>42278</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1">
         <v>5.5</v>
@@ -1409,10 +1409,10 @@
         <v>42430</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -1435,10 +1435,10 @@
         <v>42614</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="1">
         <v>4.7</v>
@@ -1461,10 +1461,10 @@
         <v>42614</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E16" s="1">
         <v>5.5</v>
@@ -1496,19 +1496,19 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>10</v>
@@ -1522,22 +1522,22 @@
         <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E32" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>10</v>
@@ -1548,25 +1548,25 @@
         <v>40969</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>10</v>
@@ -1580,19 +1580,19 @@
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E34" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>16</v>
@@ -1606,22 +1606,22 @@
         <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1">
         <v>7.9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>10</v>
@@ -1635,19 +1635,19 @@
         <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="1">
         <v>7.9</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>17</v>
@@ -1658,22 +1658,22 @@
         <v>41548</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>17</v>
@@ -1684,22 +1684,22 @@
         <v>41913</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="1">
         <v>7.9</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -1710,22 +1710,22 @@
         <v>41913</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>17</v>
@@ -1736,26 +1736,26 @@
         <v>42278</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1767,16 +1767,16 @@
         <v>12.9</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -1784,22 +1784,22 @@
         <v>42278</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1">
         <v>7.9</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>17</v>
